--- a/doc/30_詳細設計/01_画面系/詳細設計書画面定義書.xlsx
+++ b/doc/30_詳細設計/01_画面系/詳細設計書画面定義書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab9e30a70c0c263a/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\colpro_workspace\COL-PRO\doc\30_詳細設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E3F7CBD-76F0-43A6-BD7C-F204849197A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D62DB9-E5D5-496A-93D9-164AC7F12347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94B79040-A048-40C4-96A2-4EB8C9283F2C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>画面項目定義書</t>
     <rPh sb="0" eb="2">
@@ -286,13 +286,61 @@
       <t>カイイントウロク</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>username_errormessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パスワード_エラーメッセージ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_errormessage</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ユーザー名_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>エラーメッセージ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,8 +394,26 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,14 +432,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -796,17 +856,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,11 +1005,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -831,17 +1014,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,104 +1029,32 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5A1821-62A7-402E-A97D-01E07BF19124}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1302,67 +1405,67 @@
     <row r="2" spans="1:19">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="5"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38"/>
     </row>
     <row r="3" spans="1:19" ht="18.600000000000001" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10" t="s">
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10" t="s">
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="11">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="5">
         <v>45036</v>
       </c>
-      <c r="S3" s="12"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" ht="14.4" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="13"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1378,760 +1481,814 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="14"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="16" t="s">
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="16" t="s">
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="19"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="50"/>
     </row>
     <row r="6" spans="1:19" ht="14.4" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="25"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="51"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="26">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="28" t="s">
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="26">
+      <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30" t="s">
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30">
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29">
         <v>8</v>
       </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30" t="s">
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="31"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="26">
+      <c r="C9" s="9">
         <v>3</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="32" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="25">
         <v>8</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="32" t="s">
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="39"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="26">
+      <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="32" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="36" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="36">
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="25">
         <v>50</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="39"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="28"/>
+    </row>
+    <row r="11" spans="1:19" ht="18">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="26">
-        <v>6</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="32">
-        <v>10</v>
-      </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="39"/>
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="55"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11">
+        <v>50</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="26">
-        <v>7</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="32">
-        <v>50</v>
-      </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="39"/>
+      <c r="C12" s="9">
+        <v>6</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="25">
+        <v>10</v>
+      </c>
+      <c r="N12" s="26"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="26">
-        <v>8</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="39"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="C13" s="9">
+        <v>7</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="25">
+        <v>50</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="28"/>
+    </row>
+    <row r="14" spans="1:19" ht="18">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="44"/>
+      <c r="C14" s="9">
+        <v>8</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11">
+        <v>50</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="13"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="44"/>
+      <c r="C15" s="9">
+        <v>9</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="28"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="44"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="24"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="44"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="44"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="24"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="44"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="44"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="24"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="44"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="44"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="24"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="44"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="24"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="47"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="24"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="47"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="47"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="20"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="47"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="47"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="20"/>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="47"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="20"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="47"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="20"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="47"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="20"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="47"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="20"/>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="47"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="20"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="47"/>
-    </row>
-    <row r="35" spans="1:19" ht="14.4" thickBot="1">
+      <c r="C34" s="15"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="20"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="50"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="20"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="C36" s="15"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="20"/>
+    </row>
+    <row r="37" spans="1:19" ht="14.4" thickBot="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="18"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="1"/>
@@ -2234,150 +2391,12 @@
       <c r="B62" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:C13">
-    <sortCondition ref="C7:C13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:C15">
+    <sortCondition ref="C7:C15"/>
   </sortState>
-  <mergeCells count="156">
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
+  <mergeCells count="158">
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
@@ -2394,6 +2413,146 @@
     <mergeCell ref="M5:O6"/>
     <mergeCell ref="P5:S6"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P36:S36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
